--- a/Data/EC/NIT-9010923007.xlsx
+++ b/Data/EC/NIT-9010923007.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E0954171-E467-48D2-A046-69C02891751D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC44B68B-1A25-42A9-B52F-CA4B99033C3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D10D0791-007E-46FC-B164-39909EFC3BC4}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{68362CEC-FCD1-454D-ADA9-8F31E3300254}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,55 +65,55 @@
     <t>CC</t>
   </si>
   <si>
+    <t>45757080</t>
+  </si>
+  <si>
+    <t>JAQUELINE BUSTOS PASTRANA</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>78755471</t>
+  </si>
+  <si>
+    <t>JOSE GREGORIO ANAYA SANCHEZ</t>
+  </si>
+  <si>
+    <t>73181256</t>
+  </si>
+  <si>
+    <t>DAIRO ENRIQUE VILLARREAL GOMEZ</t>
+  </si>
+  <si>
+    <t>1047390420</t>
+  </si>
+  <si>
+    <t>DAIRO JOSE CARMONA NUNEZ</t>
+  </si>
+  <si>
     <t>73187778</t>
   </si>
   <si>
     <t>ALEXANDER ORTEGA MERCADO</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>1047390420</t>
-  </si>
-  <si>
-    <t>DAIRO JOSE CARMONA NUNEZ</t>
-  </si>
-  <si>
-    <t>78755471</t>
-  </si>
-  <si>
-    <t>JOSE GREGORIO ANAYA SANCHEZ</t>
-  </si>
-  <si>
-    <t>73181256</t>
-  </si>
-  <si>
-    <t>DAIRO ENRIQUE VILLARREAL GOMEZ</t>
-  </si>
-  <si>
-    <t>45757080</t>
-  </si>
-  <si>
-    <t>JAQUELINE BUSTOS PASTRANA</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2502</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -157,7 +157,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -527,7 +527,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0971265-571E-26EB-7520-2EC7A2A2817F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F65796B-B9E5-B0D6-D110-6D4FF5F42952}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -878,28 +878,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E444C589-8817-4938-ADB0-0E2B83F94812}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99526B27-15E6-4B3C-858B-D85511709DB3}">
   <dimension ref="B2:J52"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
@@ -912,7 +912,7 @@
       <c r="I2" s="29"/>
       <c r="J2" s="29"/>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
       <c r="C3" s="28"/>
       <c r="D3" s="30"/>
@@ -923,7 +923,7 @@
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
       <c r="C4" s="28"/>
       <c r="D4" s="30"/>
@@ -934,7 +934,7 @@
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
       <c r="C5" s="28"/>
       <c r="D5" s="31"/>
@@ -945,8 +945,8 @@
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
     </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1"/>
-    <row r="7" spans="2:10">
+    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
         <v>27</v>
       </c>
@@ -961,8 +961,8 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
-    <row r="9" spans="2:10">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -977,8 +977,8 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
-    <row r="11" spans="2:10">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
         <v>28</v>
       </c>
@@ -993,8 +993,8 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
-    <row r="13" spans="2:10">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
         <v>29</v>
       </c>
@@ -1013,7 +1013,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1042,7 +1042,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="2:10">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1056,73 +1056,73 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>52000</v>
+        <v>50667</v>
       </c>
       <c r="G16" s="18">
-        <v>1300000</v>
+        <v>2000000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
       <c r="J16" s="20"/>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F17" s="18">
-        <v>52000</v>
+        <v>80000</v>
       </c>
       <c r="G17" s="18">
-        <v>1300000</v>
+        <v>2000000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
       <c r="J17" s="20"/>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F18" s="18">
-        <v>52000</v>
+        <v>80000</v>
       </c>
       <c r="G18" s="18">
-        <v>1300000</v>
+        <v>2000000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
       <c r="J18" s="20"/>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F19" s="18">
         <v>80000</v>
@@ -1134,18 +1134,18 @@
       <c r="I19" s="19"/>
       <c r="J19" s="20"/>
     </row>
-    <row r="20" spans="2:10">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F20" s="18">
         <v>80000</v>
@@ -1157,64 +1157,64 @@
       <c r="I20" s="19"/>
       <c r="J20" s="20"/>
     </row>
-    <row r="21" spans="2:10">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F21" s="18">
-        <v>52000</v>
+        <v>80000</v>
       </c>
       <c r="G21" s="18">
-        <v>1300000</v>
+        <v>2000000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
       <c r="J21" s="20"/>
     </row>
-    <row r="22" spans="2:10">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F22" s="18">
-        <v>52000</v>
+        <v>80000</v>
       </c>
       <c r="G22" s="18">
-        <v>1300000</v>
+        <v>2000000</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
       <c r="J22" s="20"/>
     </row>
-    <row r="23" spans="2:10">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F23" s="18">
         <v>52000</v>
@@ -1226,30 +1226,30 @@
       <c r="I23" s="19"/>
       <c r="J23" s="20"/>
     </row>
-    <row r="24" spans="2:10">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>20</v>
-      </c>
       <c r="F24" s="18">
-        <v>80000</v>
+        <v>52000</v>
       </c>
       <c r="G24" s="18">
-        <v>2000000</v>
+        <v>1300000</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
       <c r="J24" s="20"/>
     </row>
-    <row r="25" spans="2:10">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
         <v>8</v>
       </c>
@@ -1260,260 +1260,260 @@
         <v>19</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F25" s="18">
-        <v>80000</v>
+        <v>52000</v>
       </c>
       <c r="G25" s="18">
-        <v>2000000</v>
+        <v>1300000</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
       <c r="J25" s="20"/>
     </row>
-    <row r="26" spans="2:10">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F26" s="18">
-        <v>52000</v>
+        <v>50667</v>
       </c>
       <c r="G26" s="18">
-        <v>1300000</v>
+        <v>1000000</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
       <c r="J26" s="20"/>
     </row>
-    <row r="27" spans="2:10">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="F27" s="18">
-        <v>52000</v>
+        <v>80000</v>
       </c>
       <c r="G27" s="18">
-        <v>1300000</v>
+        <v>1000000</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
       <c r="J27" s="20"/>
     </row>
-    <row r="28" spans="2:10">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D28" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E28" s="16" t="s">
-        <v>21</v>
-      </c>
       <c r="F28" s="18">
-        <v>52000</v>
+        <v>80000</v>
       </c>
       <c r="G28" s="18">
-        <v>1300000</v>
+        <v>1000000</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
       <c r="J28" s="20"/>
     </row>
-    <row r="29" spans="2:10">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F29" s="18">
         <v>80000</v>
       </c>
       <c r="G29" s="18">
-        <v>2000000</v>
+        <v>1000000</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
       <c r="J29" s="20"/>
     </row>
-    <row r="30" spans="2:10">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F30" s="18">
         <v>80000</v>
       </c>
       <c r="G30" s="18">
-        <v>2000000</v>
+        <v>1000000</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
       <c r="J30" s="20"/>
     </row>
-    <row r="31" spans="2:10">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F31" s="18">
-        <v>52000</v>
+        <v>80000</v>
       </c>
       <c r="G31" s="18">
-        <v>1300000</v>
+        <v>1000000</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
       <c r="J31" s="20"/>
     </row>
-    <row r="32" spans="2:10">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F32" s="18">
-        <v>52000</v>
+        <v>80000</v>
       </c>
       <c r="G32" s="18">
-        <v>1300000</v>
+        <v>1000000</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
       <c r="J32" s="20"/>
     </row>
-    <row r="33" spans="2:10">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F33" s="18">
-        <v>80000</v>
+        <v>32933</v>
       </c>
       <c r="G33" s="18">
-        <v>2000000</v>
+        <v>1300000</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
       <c r="J33" s="20"/>
     </row>
-    <row r="34" spans="2:10">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B34" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="F34" s="18">
-        <v>80000</v>
+        <v>52000</v>
       </c>
       <c r="G34" s="18">
-        <v>2000000</v>
+        <v>1300000</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
       <c r="J34" s="20"/>
     </row>
-    <row r="35" spans="2:10">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B35" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F35" s="18">
-        <v>80000</v>
+        <v>52000</v>
       </c>
       <c r="G35" s="18">
-        <v>2000000</v>
+        <v>1300000</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
       <c r="J35" s="20"/>
     </row>
-    <row r="36" spans="2:10">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B36" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="F36" s="18">
         <v>52000</v>
@@ -1525,41 +1525,41 @@
       <c r="I36" s="19"/>
       <c r="J36" s="20"/>
     </row>
-    <row r="37" spans="2:10">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B37" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="F37" s="18">
-        <v>80000</v>
+        <v>52000</v>
       </c>
       <c r="G37" s="18">
-        <v>2000000</v>
+        <v>1300000</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
       <c r="J37" s="20"/>
     </row>
-    <row r="38" spans="2:10">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B38" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="F38" s="18">
         <v>52000</v>
@@ -1571,18 +1571,18 @@
       <c r="I38" s="19"/>
       <c r="J38" s="20"/>
     </row>
-    <row r="39" spans="2:10">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B39" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F39" s="18">
         <v>52000</v>
@@ -1594,64 +1594,64 @@
       <c r="I39" s="19"/>
       <c r="J39" s="20"/>
     </row>
-    <row r="40" spans="2:10">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B40" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="F40" s="18">
-        <v>80000</v>
+        <v>32933</v>
       </c>
       <c r="G40" s="18">
-        <v>2000000</v>
+        <v>1300000</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
       <c r="J40" s="20"/>
     </row>
-    <row r="41" spans="2:10">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B41" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F41" s="18">
-        <v>80000</v>
+        <v>52000</v>
       </c>
       <c r="G41" s="18">
-        <v>2000000</v>
+        <v>1300000</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
       <c r="J41" s="20"/>
     </row>
-    <row r="42" spans="2:10">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B42" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="F42" s="18">
         <v>52000</v>
@@ -1663,67 +1663,67 @@
       <c r="I42" s="19"/>
       <c r="J42" s="20"/>
     </row>
-    <row r="43" spans="2:10">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B43" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F43" s="18">
-        <v>50667</v>
+        <v>52000</v>
       </c>
       <c r="G43" s="18">
-        <v>2000000</v>
+        <v>1300000</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
       <c r="J43" s="20"/>
     </row>
-    <row r="44" spans="2:10">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B44" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="F44" s="18">
-        <v>50667</v>
+        <v>52000</v>
       </c>
       <c r="G44" s="18">
-        <v>2000000</v>
+        <v>1300000</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
       <c r="J44" s="20"/>
     </row>
-    <row r="45" spans="2:10">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B45" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="F45" s="18">
-        <v>32933</v>
+        <v>52000</v>
       </c>
       <c r="G45" s="18">
         <v>1300000</v>
@@ -1732,21 +1732,21 @@
       <c r="I45" s="19"/>
       <c r="J45" s="20"/>
     </row>
-    <row r="46" spans="2:10">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B46" s="21" t="s">
         <v>8</v>
       </c>
       <c r="C46" s="22" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D46" s="23" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E46" s="22" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="F46" s="24">
-        <v>32933</v>
+        <v>52000</v>
       </c>
       <c r="G46" s="24">
         <v>1300000</v>
@@ -1755,7 +1755,7 @@
       <c r="I46" s="25"/>
       <c r="J46" s="26"/>
     </row>
-    <row r="51" spans="2:10">
+    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B51" s="32" t="s">
         <v>35</v>
       </c>
@@ -1766,7 +1766,7 @@
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
     </row>
-    <row r="52" spans="2:10">
+    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B52" s="32" t="s">
         <v>34</v>
       </c>

--- a/Data/EC/NIT-9010923007.xlsx
+++ b/Data/EC/NIT-9010923007.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC44B68B-1A25-42A9-B52F-CA4B99033C3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{664499EB-3D85-4B11-AA7D-CAD80A7E7459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{68362CEC-FCD1-454D-ADA9-8F31E3300254}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6A80E1B8-7062-4A95-BF38-80DFBCCEFA14}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,49 +71,49 @@
     <t>JAQUELINE BUSTOS PASTRANA</t>
   </si>
   <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>78755471</t>
+  </si>
+  <si>
+    <t>JOSE GREGORIO ANAYA SANCHEZ</t>
+  </si>
+  <si>
+    <t>73181256</t>
+  </si>
+  <si>
+    <t>DAIRO ENRIQUE VILLARREAL GOMEZ</t>
+  </si>
+  <si>
+    <t>1047390420</t>
+  </si>
+  <si>
+    <t>DAIRO JOSE CARMONA NUNEZ</t>
+  </si>
+  <si>
+    <t>73187778</t>
+  </si>
+  <si>
+    <t>ALEXANDER ORTEGA MERCADO</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
     <t>2502</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>78755471</t>
-  </si>
-  <si>
-    <t>JOSE GREGORIO ANAYA SANCHEZ</t>
-  </si>
-  <si>
-    <t>73181256</t>
-  </si>
-  <si>
-    <t>DAIRO ENRIQUE VILLARREAL GOMEZ</t>
-  </si>
-  <si>
-    <t>1047390420</t>
-  </si>
-  <si>
-    <t>DAIRO JOSE CARMONA NUNEZ</t>
-  </si>
-  <si>
-    <t>73187778</t>
-  </si>
-  <si>
-    <t>ALEXANDER ORTEGA MERCADO</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -157,7 +157,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -212,7 +212,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -225,9 +227,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -427,23 +427,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -471,10 +471,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -527,7 +527,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F65796B-B9E5-B0D6-D110-6D4FF5F42952}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{828440CD-2237-2763-4295-FB74A12DE610}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -878,28 +878,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99526B27-15E6-4B3C-858B-D85511709DB3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{495CAAF9-F979-4B21-A408-625DF8007374}">
   <dimension ref="B2:J52"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:10">
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
@@ -912,7 +912,7 @@
       <c r="I2" s="29"/>
       <c r="J2" s="29"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:10">
       <c r="B3" s="3"/>
       <c r="C3" s="28"/>
       <c r="D3" s="30"/>
@@ -923,7 +923,7 @@
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:10">
       <c r="B4" s="3"/>
       <c r="C4" s="28"/>
       <c r="D4" s="30"/>
@@ -934,7 +934,7 @@
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:10">
       <c r="B5" s="3"/>
       <c r="C5" s="28"/>
       <c r="D5" s="31"/>
@@ -945,8 +945,8 @@
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
     </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:10" ht="9" customHeight="1"/>
+    <row r="7" spans="2:10">
       <c r="B7" s="4" t="s">
         <v>27</v>
       </c>
@@ -961,8 +961,8 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
+    <row r="9" spans="2:10">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -977,8 +977,8 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
+    <row r="11" spans="2:10">
       <c r="B11" s="4" t="s">
         <v>28</v>
       </c>
@@ -993,8 +993,8 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
+    <row r="13" spans="2:10">
       <c r="B13" s="9" t="s">
         <v>29</v>
       </c>
@@ -1013,7 +1013,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:10">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1042,7 +1042,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:10">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1056,7 +1056,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>50667</v>
+        <v>80000</v>
       </c>
       <c r="G16" s="18">
         <v>2000000</v>
@@ -1065,41 +1065,41 @@
       <c r="I16" s="19"/>
       <c r="J16" s="20"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:10">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
-        <v>80000</v>
+        <v>52000</v>
       </c>
       <c r="G17" s="18">
-        <v>2000000</v>
+        <v>1300000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
       <c r="J17" s="20"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:10">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F18" s="18">
         <v>80000</v>
@@ -1111,53 +1111,53 @@
       <c r="I18" s="19"/>
       <c r="J18" s="20"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:10">
       <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F19" s="18">
-        <v>80000</v>
+        <v>52000</v>
       </c>
       <c r="G19" s="18">
-        <v>2000000</v>
+        <v>1300000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
       <c r="J19" s="20"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:10">
       <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F20" s="18">
-        <v>80000</v>
+        <v>52000</v>
       </c>
       <c r="G20" s="18">
-        <v>2000000</v>
+        <v>1300000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
       <c r="J20" s="20"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:10">
       <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
@@ -1168,7 +1168,7 @@
         <v>10</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F21" s="18">
         <v>80000</v>
@@ -1180,64 +1180,64 @@
       <c r="I21" s="19"/>
       <c r="J21" s="20"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:10">
       <c r="B22" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F22" s="18">
-        <v>80000</v>
+        <v>52000</v>
       </c>
       <c r="G22" s="18">
-        <v>2000000</v>
+        <v>1300000</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
       <c r="J22" s="20"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:10">
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F23" s="18">
-        <v>52000</v>
+        <v>80000</v>
       </c>
       <c r="G23" s="18">
-        <v>1300000</v>
+        <v>2000000</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
       <c r="J23" s="20"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:10">
       <c r="B24" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F24" s="18">
         <v>52000</v>
@@ -1249,7 +1249,7 @@
       <c r="I24" s="19"/>
       <c r="J24" s="20"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:10">
       <c r="B25" s="15" t="s">
         <v>8</v>
       </c>
@@ -1260,7 +1260,7 @@
         <v>19</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F25" s="18">
         <v>52000</v>
@@ -1272,182 +1272,182 @@
       <c r="I25" s="19"/>
       <c r="J25" s="20"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:10">
       <c r="B26" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D26" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E26" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F26" s="18">
-        <v>50667</v>
+        <v>80000</v>
       </c>
       <c r="G26" s="18">
-        <v>1000000</v>
+        <v>2000000</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
       <c r="J26" s="20"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:10">
       <c r="B27" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D27" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E27" s="16" t="s">
-        <v>12</v>
-      </c>
       <c r="F27" s="18">
-        <v>80000</v>
+        <v>52000</v>
       </c>
       <c r="G27" s="18">
-        <v>1000000</v>
+        <v>1300000</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
       <c r="J27" s="20"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:10">
       <c r="B28" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D28" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" s="16" t="s">
         <v>21</v>
-      </c>
-      <c r="E28" s="16" t="s">
-        <v>13</v>
       </c>
       <c r="F28" s="18">
         <v>80000</v>
       </c>
       <c r="G28" s="18">
-        <v>1000000</v>
+        <v>2000000</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
       <c r="J28" s="20"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:10">
       <c r="B29" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D29" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E29" s="16" t="s">
-        <v>14</v>
-      </c>
       <c r="F29" s="18">
-        <v>80000</v>
+        <v>52000</v>
       </c>
       <c r="G29" s="18">
-        <v>1000000</v>
+        <v>1300000</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
       <c r="J29" s="20"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:10">
       <c r="B30" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D30" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E30" s="16" t="s">
-        <v>15</v>
-      </c>
       <c r="F30" s="18">
-        <v>80000</v>
+        <v>52000</v>
       </c>
       <c r="G30" s="18">
-        <v>1000000</v>
+        <v>1300000</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
       <c r="J30" s="20"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:10">
       <c r="B31" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F31" s="18">
         <v>80000</v>
       </c>
       <c r="G31" s="18">
-        <v>1000000</v>
+        <v>2000000</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
       <c r="J31" s="20"/>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:10">
       <c r="B32" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F32" s="18">
         <v>80000</v>
       </c>
       <c r="G32" s="18">
-        <v>1000000</v>
+        <v>2000000</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
       <c r="J32" s="20"/>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:10">
       <c r="B33" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E33" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D33" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E33" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F33" s="18">
-        <v>32933</v>
+        <v>52000</v>
       </c>
       <c r="G33" s="18">
         <v>1300000</v>
@@ -1456,18 +1456,18 @@
       <c r="I33" s="19"/>
       <c r="J33" s="20"/>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:10">
       <c r="B34" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" s="16" t="s">
         <v>22</v>
-      </c>
-      <c r="D34" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E34" s="16" t="s">
-        <v>12</v>
       </c>
       <c r="F34" s="18">
         <v>52000</v>
@@ -1479,64 +1479,64 @@
       <c r="I34" s="19"/>
       <c r="J34" s="20"/>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:10">
       <c r="B35" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D35" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="E35" s="16" t="s">
-        <v>13</v>
-      </c>
       <c r="F35" s="18">
-        <v>52000</v>
+        <v>80000</v>
       </c>
       <c r="G35" s="18">
-        <v>1300000</v>
+        <v>2000000</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
       <c r="J35" s="20"/>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:10">
       <c r="B36" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D36" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E36" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="E36" s="16" t="s">
-        <v>14</v>
-      </c>
       <c r="F36" s="18">
-        <v>52000</v>
+        <v>80000</v>
       </c>
       <c r="G36" s="18">
-        <v>1300000</v>
+        <v>2000000</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
       <c r="J36" s="20"/>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:10">
       <c r="B37" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D37" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E37" s="16" t="s">
         <v>23</v>
-      </c>
-      <c r="E37" s="16" t="s">
-        <v>15</v>
       </c>
       <c r="F37" s="18">
         <v>52000</v>
@@ -1548,18 +1548,18 @@
       <c r="I37" s="19"/>
       <c r="J37" s="20"/>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:10">
       <c r="B38" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D38" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E38" s="16" t="s">
         <v>23</v>
-      </c>
-      <c r="E38" s="16" t="s">
-        <v>16</v>
       </c>
       <c r="F38" s="18">
         <v>52000</v>
@@ -1571,64 +1571,64 @@
       <c r="I38" s="19"/>
       <c r="J38" s="20"/>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:10">
       <c r="B39" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F39" s="18">
-        <v>52000</v>
+        <v>80000</v>
       </c>
       <c r="G39" s="18">
-        <v>1300000</v>
+        <v>2000000</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
       <c r="J39" s="20"/>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:10">
       <c r="B40" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E40" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D40" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E40" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F40" s="18">
-        <v>32933</v>
+        <v>80000</v>
       </c>
       <c r="G40" s="18">
-        <v>1300000</v>
+        <v>2000000</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
       <c r="J40" s="20"/>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:10">
       <c r="B41" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E41" s="16" t="s">
         <v>24</v>
-      </c>
-      <c r="D41" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E41" s="16" t="s">
-        <v>12</v>
       </c>
       <c r="F41" s="18">
         <v>52000</v>
@@ -1640,18 +1640,18 @@
       <c r="I41" s="19"/>
       <c r="J41" s="20"/>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:10">
       <c r="B42" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D42" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E42" s="16" t="s">
         <v>24</v>
-      </c>
-      <c r="D42" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E42" s="16" t="s">
-        <v>13</v>
       </c>
       <c r="F42" s="18">
         <v>52000</v>
@@ -1663,67 +1663,67 @@
       <c r="I42" s="19"/>
       <c r="J42" s="20"/>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:10">
       <c r="B43" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D43" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="E43" s="16" t="s">
-        <v>14</v>
-      </c>
       <c r="F43" s="18">
-        <v>52000</v>
+        <v>50667</v>
       </c>
       <c r="G43" s="18">
-        <v>1300000</v>
+        <v>2000000</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
       <c r="J43" s="20"/>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:10">
       <c r="B44" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D44" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E44" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="E44" s="16" t="s">
-        <v>15</v>
-      </c>
       <c r="F44" s="18">
-        <v>52000</v>
+        <v>50667</v>
       </c>
       <c r="G44" s="18">
-        <v>1300000</v>
+        <v>2000000</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
       <c r="J44" s="20"/>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:10">
       <c r="B45" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D45" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E45" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="E45" s="16" t="s">
-        <v>16</v>
-      </c>
       <c r="F45" s="18">
-        <v>52000</v>
+        <v>32933</v>
       </c>
       <c r="G45" s="18">
         <v>1300000</v>
@@ -1732,21 +1732,21 @@
       <c r="I45" s="19"/>
       <c r="J45" s="20"/>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:10">
       <c r="B46" s="21" t="s">
         <v>8</v>
       </c>
       <c r="C46" s="22" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D46" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="E46" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="E46" s="22" t="s">
-        <v>17</v>
-      </c>
       <c r="F46" s="24">
-        <v>52000</v>
+        <v>32933</v>
       </c>
       <c r="G46" s="24">
         <v>1300000</v>
@@ -1755,7 +1755,7 @@
       <c r="I46" s="25"/>
       <c r="J46" s="26"/>
     </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:10">
       <c r="B51" s="32" t="s">
         <v>35</v>
       </c>
@@ -1766,7 +1766,7 @@
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
     </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:10">
       <c r="B52" s="32" t="s">
         <v>34</v>
       </c>
